--- a/SEROFOI/data frame/col_HPV18_summary.xlsx
+++ b/SEROFOI/data frame/col_HPV18_summary.xlsx
@@ -1,98 +1,91 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caj_d\OneDrive\Escritorio\Proyecto Fuerza de infección VPH\GIT\hpv_seroprevalence\SEROFOI\data frame\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23A9081-2230-4F11-A8B0-67B750E4FB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
-  <si>
-    <t>model_name</t>
-  </si>
-  <si>
-    <t>elpd_loo</t>
-  </si>
-  <si>
-    <t>foi</t>
-  </si>
-  <si>
-    <t>foi_rhat</t>
-  </si>
-  <si>
-    <t>converged</t>
-  </si>
-  <si>
-    <t>seroreversion_rate</t>
-  </si>
-  <si>
-    <t>seroreversion_rate_rhat</t>
-  </si>
-  <si>
-    <t>constant_no_seroreversion</t>
-  </si>
-  <si>
-    <t>-40(se=10.8)</t>
-  </si>
-  <si>
-    <t>0.0027(95% CI, 0.0023-0.0032)</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>constant_seroreversion</t>
-  </si>
-  <si>
-    <t>-22.2(se=2.9)</t>
-  </si>
-  <si>
-    <t>0.16(95% CI, 0.052-0.22)</t>
-  </si>
-  <si>
-    <t>1.4(95% CI, 0.49-2)</t>
-  </si>
-  <si>
-    <t>time_no_seroreversion</t>
-  </si>
-  <si>
-    <t>-30.5(se=6.8)</t>
-  </si>
-  <si>
-    <t>age_no_seroreversion</t>
-  </si>
-  <si>
-    <t>-50.3(se=20.2)</t>
-  </si>
-  <si>
-    <t>age_seroreversion</t>
-  </si>
-  <si>
-    <t>-20.9(se=1.7)</t>
-  </si>
-  <si>
-    <t>1.3(95% CI, 0.74-2.1)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t xml:space="preserve">model_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elpd_loo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foi_rhat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seroreversion_rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seroreversion_rate_rhat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">converged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constant_seroreversion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-22.1(se=2.9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15(95% CI, 0.055-0.23)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4(95% CI, 0.5-1.9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-22.2(se=2.9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16(95% CI, 0.049-0.23)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5(95% CI, 0.44-1.9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time_no_seroreversion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-30.5(se=6.9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_no_seroreversion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-50.8(se=20.5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_seroreversion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-21.1(se=1.5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3(95% CI, 0.77-2.1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -100,30 +93,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -131,60 +110,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -466,144 +402,133 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="2"/>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1">
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2"/>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/SEROFOI/data frame/col_HPV18_summary.xlsx
+++ b/SEROFOI/data frame/col_HPV18_summary.xlsx
@@ -1,91 +1,95 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caj_d\OneDrive\Escritorio\Proyecto Fuerza de infección VPH\GIT\hpv_seroprevalence\SEROFOI\data frame\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DC5FA2-A4A5-4260-BD0C-22045130DA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t xml:space="preserve">model_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">elpd_loo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">foi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">foi_rhat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seroreversion_rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seroreversion_rate_rhat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">converged</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constant_seroreversion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-22.1(se=2.9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15(95% CI, 0.055-0.23)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4(95% CI, 0.5-1.9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-22.2(se=2.9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16(95% CI, 0.049-0.23)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5(95% CI, 0.44-1.9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time_no_seroreversion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-30.5(se=6.9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age_no_seroreversion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-50.8(se=20.5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age_seroreversion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-21.1(se=1.5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3(95% CI, 0.77-2.1)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+  <si>
+    <t>model_name</t>
+  </si>
+  <si>
+    <t>elpd_loo</t>
+  </si>
+  <si>
+    <t>foi</t>
+  </si>
+  <si>
+    <t>foi_rhat</t>
+  </si>
+  <si>
+    <t>seroreversion_rate</t>
+  </si>
+  <si>
+    <t>seroreversion_rate_rhat</t>
+  </si>
+  <si>
+    <t>converged</t>
+  </si>
+  <si>
+    <t>constant_seroreversion</t>
+  </si>
+  <si>
+    <t>-22.1(se=2.9)</t>
+  </si>
+  <si>
+    <t>0.17(95% CI, 0.062-0.23)</t>
+  </si>
+  <si>
+    <t>1.5(95% CI, 0.58-2)</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>0.16(95% CI, 0.056-0.23)</t>
+  </si>
+  <si>
+    <t>1.5(95% CI, 0.5-2)</t>
+  </si>
+  <si>
+    <t>time_no_seroreversion</t>
+  </si>
+  <si>
+    <t>-30.9(se=7)</t>
+  </si>
+  <si>
+    <t>age_no_seroreversion</t>
+  </si>
+  <si>
+    <t>-51(se=20.9)</t>
+  </si>
+  <si>
+    <t>age_seroreversion</t>
+  </si>
+  <si>
+    <t>-21.1(se=1.6)</t>
+  </si>
+  <si>
+    <t>1.3(95% CI, 0.71-2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -102,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -110,17 +114,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -402,133 +431,142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.21875" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="n">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>